--- a/biology/Botanique/Campylotropis/Campylotropis.xlsx
+++ b/biology/Botanique/Campylotropis/Campylotropis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Campylotropis est un genre de plantes de la famille des Fabacées originaires d'Asie orientale.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de Campylotropis sont des arbustes à feuillage caduc.
 La fleur, papilionacées, est portée par une courte panicule : elle est unique par bractéole, ce qui distingue le genre du genre Lespedeza où les fleurs sont doubles.
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre sont toutes originaires d'Asie, principalement de Chine.
 L'utilisation ornementale de quelques-unes des espèces du genre, principalement de Campylotropis macrocarpa, en ont étendu son aire de répartition à l'ensemble des pays à climat tempéré.
@@ -577,16 +593,56 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Historique et position taxinomique
-Le genre Campylotropis fait partie de la sous-famille des Faboideae, tribu des Desmodieae, sous-tribu des Lespedezinae.
-Nathaniel Wallich, en 1831, dans sa liste, donne comme nom de genre Oxyramphis à Oxyramphis macrostyla (D.Don) Wall., espèce maintenant incluse dans le genre Campylotropis[1]. Mais il n'en produit pas la description. Un exemplaire de la même espèce, collecté aussi par Nathaniel Wallich, avait été décrit en 1825, à tort, dans le genre Crotalaria L. par David Don : Crotalaria macrostyla D.Don[2]
-Le genre est décrit en 1835 par Aleksandr Andreïevitch von Bunge à la suite de son voyage en Chine, mais sur la base d'une autre espèce collectée par lui-même [3].
-Quand la description de l'exemplaire de Wallich est réalisée en 1846 par John Lindley, le nom Oxyramphis devient donc un synonyme de Campylotropis[4].
+          <t>Historique et position taxinomique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Campylotropis fait partie de la sous-famille des Faboideae, tribu des Desmodieae, sous-tribu des Lespedezinae.
+Nathaniel Wallich, en 1831, dans sa liste, donne comme nom de genre Oxyramphis à Oxyramphis macrostyla (D.Don) Wall., espèce maintenant incluse dans le genre Campylotropis. Mais il n'en produit pas la description. Un exemplaire de la même espèce, collecté aussi par Nathaniel Wallich, avait été décrit en 1825, à tort, dans le genre Crotalaria L. par David Don : Crotalaria macrostyla D.Don
+Le genre est décrit en 1835 par Aleksandr Andreïevitch von Bunge à la suite de son voyage en Chine, mais sur la base d'une autre espèce collectée par lui-même .
+Quand la description de l'exemplaire de Wallich est réalisée en 1846 par John Lindley, le nom Oxyramphis devient donc un synonyme de Campylotropis.
 Pendant toute la suite du XIXe siècle, le genre est considéré comme un synonyme du genre Lespedeza. En particulier, Karl Ivanovitch Maksimovich, en 1873, en fait la section Campylotropis du genre Lespedeza.
-En 1912, Anton Karl Schindler élabore une révision complète du genre, indépendant du genre Lespedeza, en y incluant presque toutes les espèces actuelles[5].
-Enfin, en 1997 et 2002, Yu Iokawa et Hiroyoshi Ohashi, sur la base d'études phylogénétiques, réorganisent le genre, en déterminant plusieurs synonymies[6].
-Liste des espèces
-La liste des espèces est issue des index IPNI - The international plant names index et Tropicos - Index du jardin botanique du Missouri à la date de novembre 2011. Les espèces conservées dans le genre sont signalées en gras :
+En 1912, Anton Karl Schindler élabore une révision complète du genre, indépendant du genre Lespedeza, en y incluant presque toutes les espèces actuelles.
+Enfin, en 1997 et 2002, Yu Iokawa et Hiroyoshi Ohashi, sur la base d'études phylogénétiques, réorganisent le genre, en déterminant plusieurs synonymies.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Campylotropis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Campylotropis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Nomenclature et systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste des espèces est issue des index IPNI - The international plant names index et Tropicos - Index du jardin botanique du Missouri à la date de novembre 2011. Les espèces conservées dans le genre sont signalées en gras :
 Campylotropis alata Schindl. (1912) : voir Campylotropis trigonoclada (Franch.) Schindl.
 Campylotropis alba Iokawa &amp; H.Ohashi (1997)
 Campylotropis alopochloa H.Ohashi (1974) : voir Campylotropis alopochroa H.Ohashi
@@ -603,13 +659,13 @@
 Campylotropis capillipes (Franch.) Schindl. (1912)
 Campylotropis capillipes subsp. prainii (Collett &amp; Hemsl.) Iokawa &amp; H.Ohashi (2002)
 Campylotropis chinensis Bunge (1835) : voir Campylotropis macrocarpa (Bunge) Rehder
-Campylotropis cytisoides (Benth.) Miq. (1855) [7]
+Campylotropis cytisoides (Benth.) Miq. (1855) 
 Campylotropis cytisoides fo. parviflora (Kurz) Iokawa &amp; H.Ohashi (2002)
 Campylotropis decora (Kurz) Schindl. (1912)
 Campylotropis delavayi (Franch.) Schindl. (1912)
 Campylotropis diversifolia (Hemsl.) Schindl. (1912)
 Campylotropis drummondii Schindl. (1912)
-Campylotropis eriocarpa (Maxim.) Schindl. (1912) : voir Campylotropis speciosa subsp. eriocarpa (Maxim.) Iokawa &amp; H.Ohashi[8]
+Campylotropis eriocarpa (Maxim.) Schindl. (1912) : voir Campylotropis speciosa subsp. eriocarpa (Maxim.) Iokawa &amp; H.Ohashi
 Campylotropis eriocarpa var. falconeri N.C. Nair (1977) : voir Campylotropis speciosa subsp. eriocarpa (Maximl.) Iokawa &amp; H.Ohashi
 Campylotropis esquirolii Schindl. (1912) : voir Campylotropis henryi (Schindl.) Schindl.
 Campylotropis falconeri Schindl. (1912) : voir Campylotropis meeboldii Schindl.
@@ -639,14 +695,14 @@
 Campylotropis macrocarpa var. giraldii (Schindl.) K.T.Fu ex P.Y.Fu (1987) : voir Campylotropis macrocarpa var. hupehensis (Pamp.) Iokawa &amp; H.Ohashi
 Campylotropis macrocarpa subsp. hengduanshanensis C.J.Chen (1988)
 Campylotropis macrocarpa fo. hupehensis (Pamp.) P.Y.Fu (1987) : voir Campylotropis macrocarpa var. hupehensis (Pamp.) Iokawa &amp; H.Ohashi
-Campylotropis macrocarpa var. hupehensis (Pamp.) Iokawa &amp; H. Ohashi (2002) [9]
+Campylotropis macrocarpa var. hupehensis (Pamp.) Iokawa &amp; H. Ohashi (2002) 
 Campylotropis macrocarpa fo. lanceolata P.Y.Fu (1987)
 Campylotropis macrocarpa fo. longepedunculata (Ricker) P.Y.Fu (1987) : voir Campylotropis macrocarpa var. hupehensis (Pamp.) Iokawa &amp; H.Ohashi
 Campylotropis macrocarpa fo. microphylla K.T.Fu ex P.Y.Fu (1987) : voir Campylotropis macrocarpa var. hupehensis (Pamp.) Iokawa &amp; H.Ohashi
 Campylotropis macrostyla (D.Don) Lindl. ex Miq. (1855)
-Campylotropis macrostyla Schindl. (1912) : voir Campylotropis macrostyla (D.Don) Lindl. ex Miq.[10]
-Campylotropis macrostyla var. griffithii (Schindl.) H.Ohashi (1974) [11]
-Campylotropis macrostyla var. stenocarpa (Klotzsch) H.Ohashi (1974) [11]
+Campylotropis macrostyla Schindl. (1912) : voir Campylotropis macrostyla (D.Don) Lindl. ex Miq.
+Campylotropis macrostyla var. griffithii (Schindl.) H.Ohashi (1974) 
+Campylotropis macrostyla var. stenocarpa (Klotzsch) H.Ohashi (1974) 
 Campylotropis meeboldii Schindl. (1912)
 Campylotropis mortolana Ricker (1946) : voir Campylotropis macrocarpa (Bunge) Rehder
 Campylotropis muehleana (Schindl.) Schindl. (1912) : voir Campylotropis polyantha (Franch.) Schindl.
@@ -677,7 +733,7 @@
 Campylotropis schneideri Schindl. (1925) : voir Campylotropis polyantha fo. leiocarpa (Pamp.) Iokawa &amp; H.Ohashi
 Campylotropis sericophylla (Collett &amp; Hemsl.) Schindl. (1912) : voir Campylotropis decora (Kurz) Schindl.
 Campylotropis sessilifolia Schindl. (1912) : voir Campylotropis decora (Kurz) Schindl.
-Campylotropis smithii Ricker (1946) : voir Campylotropis polyantha (Franch.) Schindl.[12]
+Campylotropis smithii Ricker (1946) : voir Campylotropis polyantha (Franch.) Schindl.
 Campylotropis souliei Schindl. (1917) : voir Campylotropis polyantha fo. souliei (Schindl.) P.Y.Fu
 Campylotropis speciosa Schindl. (1912)
 Campylotropis speciosa subsp. eriocarpa (Schindl.) Iokawa &amp; H.Ohashi (2002)
